--- a/biology/Médecine/Traitement_moral/Traitement_moral.xlsx
+++ b/biology/Médecine/Traitement_moral/Traitement_moral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idée de traitement moral a été développé pour la première fois en 1810 par Philippe Pinel, alors médecin-chef à l'Hôpital Bicêtre, dans un ouvrage intitulé Traité médico-philosophique, qui s'était lui-même inspiré de Jean-Baptiste Pussin, un surveillant de ce même hôpital.
 Le principe du traitement moral était de fournir des soins différents que ceux prodigués avant aux aliénés.
 Il s'agit bien de faire appel à la moralité du patient, pour qu'il redevienne acceptable pour la société.
-Voici les principes généraux du traitement moral tels que décrit par Pinel dans son livre[1] :
+Voici les principes généraux du traitement moral tels que décrit par Pinel dans son livre :
 maintien d'une autorité centrale qui a tout pouvoir dans l'institution. Pas de contestation de l'autorité centrale autorisée. Le personnel est soumis à une discipline sévère pour empêcher leur pouvoir arbitraire, notamment la violence.
 surveillance des aliénés, et punition en cas de désobéissance (cellule d'isolement, contention).
 pas de violence physique, bien que la force physique puisse-t-être utilisée pour soumettre les aliénés.
